--- a/_other/style/calcs.xlsx
+++ b/_other/style/calcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>frames</t>
   </si>
@@ -45,12 +45,6 @@
     <t>morrer</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>inimigo</t>
-  </si>
-  <si>
     <t>inimigos por fase</t>
   </si>
   <si>
@@ -70,6 +64,33 @@
   </si>
   <si>
     <t>memory</t>
+  </si>
+  <si>
+    <t>idle left</t>
+  </si>
+  <si>
+    <t>idle right</t>
+  </si>
+  <si>
+    <t>ação 2</t>
+  </si>
+  <si>
+    <t>damage left</t>
+  </si>
+  <si>
+    <t>damage right</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>segundos</t>
+  </si>
+  <si>
+    <t>frames totais</t>
+  </si>
+  <si>
+    <t>inimigo padrão</t>
   </si>
 </sst>
 </file>
@@ -129,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,6 +168,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -442,30 +464,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:17">
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:13">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
       <c r="B2" s="2">
         <v>146</v>
       </c>
@@ -481,40 +508,37 @@
         <f>1024/D2</f>
         <v>413.90999999999997</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>2.835</v>
       </c>
       <c r="E3" s="5">
-        <f>E2*B12</f>
-        <v>1655.6399999999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <f>E2*B16</f>
+        <v>2069.5499999999997</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E5">
-        <f>I11</f>
-        <v>210</v>
+        <f>I15</f>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -529,16 +553,16 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>E3-E5</f>
-        <v>1445.6399999999999</v>
+        <v>1739.5499999999997</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -553,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="H7" t="s">
         <v>7</v>
       </c>
@@ -567,98 +591,166 @@
         <v>7</v>
       </c>
       <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
         <v>8</v>
       </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="H9" t="s">
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="I15">
+        <f>SUM(I5:I14)</f>
+        <v>330</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L5:L14)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f>E6/L15</f>
+        <v>8.6977499999999992</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3">
+        <f>SUM(B16:B17)</f>
+        <v>7</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <f>B18*2</f>
         <v>14</v>
       </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="I11">
-        <f>SUM(I5:I10)</f>
-        <v>210</v>
-      </c>
-      <c r="L11">
-        <f>SUM(L5:L10)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <f>E6/L11</f>
-        <v>9.6375999999999991</v>
-      </c>
-      <c r="M12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="3">
-        <f>SUM(B12:B13)</f>
-        <v>7</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
